--- a/Korpus audiowizualny/POI.xlsx
+++ b/Korpus audiowizualny/POI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="301">
   <si>
     <t>Jan Englert</t>
   </si>
@@ -627,18 +627,12 @@
     <t>Jemerced</t>
   </si>
   <si>
-    <t>Kwestia Smaku</t>
-  </si>
-  <si>
     <t>Paula Jagodzińska</t>
   </si>
   <si>
     <t>Szczesliva</t>
   </si>
   <si>
-    <t>Littlemooonster96</t>
-  </si>
-  <si>
     <t>Ola Nowak</t>
   </si>
   <si>
@@ -916,6 +910,15 @@
   </si>
   <si>
     <t>Sokoł</t>
+  </si>
+  <si>
+    <t>Dawid Myśliwiec</t>
+  </si>
+  <si>
+    <t>Paulina Mikuła</t>
+  </si>
+  <si>
+    <t>Tomasz Rożek</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,43 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1307,7 +1346,7 @@
   <dimension ref="A1:E402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1335,7 +1374,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
@@ -1359,7 +1398,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
@@ -1443,7 +1482,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1515,7 +1554,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1578,7 +1617,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1587,7 +1626,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1605,7 +1644,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1632,7 +1671,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1668,7 +1707,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1704,7 +1743,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1722,10 +1761,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1733,7 +1772,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1769,7 +1808,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1778,7 +1817,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1796,7 +1835,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1841,7 +1880,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1859,7 +1898,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1903,26 +1942,26 @@
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="2"/>
+      <c r="A67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="1"/>
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>245</v>
+      <c r="A69" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1931,7 +1970,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1940,7 +1979,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1949,25 +1988,25 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>233</v>
-      </c>
-      <c r="B72" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>227</v>
-      </c>
-      <c r="B73" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1" t="s">
-        <v>118</v>
+      <c r="A74" t="s">
+        <v>225</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1975,26 +2014,26 @@
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>195</v>
-      </c>
-      <c r="B75" s="2"/>
+      <c r="A75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B76" s="1"/>
+      <c r="A76" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>292</v>
+      <c r="A77" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2003,7 +2042,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2012,7 +2051,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2021,7 +2060,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2030,7 +2069,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2039,7 +2078,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2047,8 +2086,8 @@
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="1" t="s">
-        <v>151</v>
+      <c r="A83" t="s">
+        <v>237</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2056,8 +2095,8 @@
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>9</v>
+      <c r="A84" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2065,8 +2104,8 @@
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>201</v>
+      <c r="A85" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2074,8 +2113,8 @@
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>29</v>
+      <c r="A86" t="s">
+        <v>201</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2084,7 +2123,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2092,8 +2131,8 @@
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>237</v>
+      <c r="A88" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2101,8 +2140,8 @@
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="1" t="s">
-        <v>86</v>
+      <c r="A89" t="s">
+        <v>235</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2111,7 +2150,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2120,7 +2159,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2128,8 +2167,8 @@
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>246</v>
+      <c r="A92" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2137,8 +2176,8 @@
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="1" t="s">
-        <v>130</v>
+      <c r="A93" t="s">
+        <v>244</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2147,7 +2186,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2155,8 +2194,8 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>197</v>
+      <c r="A95" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2165,7 +2204,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2174,7 +2213,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2183,7 +2222,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2191,8 +2230,8 @@
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="1" t="s">
-        <v>100</v>
+      <c r="A99" t="s">
+        <v>280</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2200,8 +2239,8 @@
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>180</v>
+      <c r="A100" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2210,7 +2249,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2219,7 +2258,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2228,27 +2267,27 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>213</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="1"/>
+      <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2257,7 +2296,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2265,8 +2304,8 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>266</v>
+      <c r="A107" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2274,8 +2313,8 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>26</v>
+      <c r="A108" t="s">
+        <v>264</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2283,8 +2322,8 @@
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>4</v>
+      <c r="A109" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2292,8 +2331,8 @@
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="1" t="s">
-        <v>0</v>
+      <c r="A110" t="s">
+        <v>4</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2301,8 +2340,8 @@
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="3" t="s">
-        <v>7</v>
+      <c r="A111" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2310,8 +2349,8 @@
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="1" t="s">
-        <v>136</v>
+      <c r="A112" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2320,7 +2359,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2329,7 +2368,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2338,7 +2377,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2346,8 +2385,8 @@
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>216</v>
+      <c r="A116" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2355,8 +2394,8 @@
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="1" t="s">
-        <v>109</v>
+      <c r="A117" t="s">
+        <v>214</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2364,8 +2403,8 @@
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>51</v>
+      <c r="A118" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2374,27 +2413,27 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>202</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>264</v>
-      </c>
-      <c r="B120" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="1" t="s">
-        <v>21</v>
+      <c r="A121" t="s">
+        <v>262</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2402,8 +2441,8 @@
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>224</v>
+      <c r="A122" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2412,7 +2451,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2421,7 +2460,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2430,7 +2469,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2438,8 +2477,8 @@
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="1" t="s">
-        <v>41</v>
+      <c r="A126" t="s">
+        <v>206</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2447,28 +2486,28 @@
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>293</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>181</v>
-      </c>
-      <c r="B128" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2477,7 +2516,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2486,7 +2525,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2494,8 +2533,8 @@
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="1" t="s">
-        <v>80</v>
+      <c r="A132" t="s">
+        <v>190</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2503,8 +2542,8 @@
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>274</v>
+      <c r="A133" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2513,7 +2552,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2521,8 +2560,8 @@
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="1" t="s">
-        <v>93</v>
+      <c r="A135" t="s">
+        <v>187</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2530,8 +2569,8 @@
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>72</v>
+      <c r="A136" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2540,7 +2579,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2549,7 +2588,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2557,8 +2596,8 @@
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="1" t="s">
-        <v>107</v>
+      <c r="A139" t="s">
+        <v>184</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2566,8 +2605,8 @@
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>170</v>
+      <c r="A140" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2576,7 +2615,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2585,7 +2624,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2593,9 +2632,10 @@
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A143" t="s">
+        <v>229</v>
+      </c>
+      <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -2629,7 +2669,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2638,7 +2678,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2674,7 +2714,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2692,7 +2732,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2755,7 +2795,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B163" s="1"/>
     </row>
@@ -2785,711 +2825,710 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>203</v>
+      <c r="A169" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
-        <v>88</v>
+      <c r="A170" t="s">
+        <v>49</v>
       </c>
       <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>206</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A172" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>69</v>
+      <c r="A173" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B174" s="1"/>
+      <c r="A174" t="s">
+        <v>62</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>62</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>267</v>
+      <c r="A178" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B179" s="1"/>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B180" s="1"/>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B181" s="1"/>
+      <c r="A181" t="s">
+        <v>60</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
-        <v>2</v>
+      <c r="A182" t="s">
+        <v>68</v>
       </c>
       <c r="B182" s="1"/>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>60</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B183" s="1"/>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>68</v>
+      <c r="A184" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B184" s="1"/>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>55</v>
+      <c r="A185" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B185" s="1"/>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
-        <v>28</v>
+      <c r="A186" t="s">
+        <v>295</v>
       </c>
       <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
-        <v>32</v>
+      <c r="A187" t="s">
+        <v>188</v>
       </c>
       <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>297</v>
+      <c r="A188" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B188" s="1"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>188</v>
+      <c r="A189" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B189" s="1"/>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1" t="s">
-        <v>35</v>
+      <c r="A190" t="s">
+        <v>166</v>
       </c>
       <c r="B190" s="1"/>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1" t="s">
-        <v>36</v>
+      <c r="A191" t="s">
+        <v>278</v>
       </c>
       <c r="B191" s="1"/>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="B192" s="1"/>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1"/>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="B194" s="1"/>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>192</v>
+      <c r="A195" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B195" s="1"/>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>286</v>
+      <c r="A196" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
-        <v>131</v>
+      <c r="A197" t="s">
+        <v>263</v>
       </c>
       <c r="B197" s="1"/>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="2" t="s">
-        <v>18</v>
+      <c r="A198" t="s">
+        <v>228</v>
       </c>
       <c r="B198" s="1"/>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B199" s="1"/>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>230</v>
+      <c r="A200" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B200" s="1"/>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>249</v>
+      <c r="A201" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B201" s="1"/>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1" t="s">
-        <v>137</v>
+      <c r="A202" t="s">
+        <v>106</v>
       </c>
       <c r="B202" s="1"/>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1" t="s">
-        <v>20</v>
+      <c r="A203" t="s">
+        <v>252</v>
       </c>
       <c r="B203" s="1"/>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="B204" s="1"/>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>254</v>
+      <c r="A205" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B205" s="1"/>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>255</v>
+      <c r="A206" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="2" t="s">
-        <v>10</v>
+      <c r="A207" t="s">
+        <v>226</v>
       </c>
       <c r="B207" s="1"/>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>228</v>
+      <c r="A209" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B209" s="1"/>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
-        <v>138</v>
+      <c r="A211" t="s">
+        <v>212</v>
       </c>
       <c r="B211" s="1"/>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>214</v>
+      <c r="A213" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B213" s="1"/>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
-        <v>133</v>
+      <c r="A214" t="s">
+        <v>281</v>
       </c>
       <c r="B214" s="1"/>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B215" s="1"/>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="B216" s="1"/>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B217" s="1"/>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>240</v>
+      <c r="A218" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B218" s="1"/>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1" t="s">
-        <v>87</v>
+      <c r="A219" t="s">
+        <v>210</v>
       </c>
       <c r="B219" s="1"/>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
-        <v>101</v>
+      <c r="A220" t="s">
+        <v>189</v>
       </c>
       <c r="B220" s="1"/>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>212</v>
+      <c r="A221" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B221" s="1"/>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>189</v>
+      <c r="A222" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B222" s="1"/>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1" t="s">
-        <v>89</v>
+      <c r="A223" t="s">
+        <v>173</v>
       </c>
       <c r="B223" s="1"/>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1" t="s">
-        <v>85</v>
+      <c r="A224" t="s">
+        <v>205</v>
       </c>
       <c r="B224" s="1"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>173</v>
+      <c r="A225" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B225" s="1"/>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B226" s="1"/>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1" t="s">
-        <v>120</v>
+      <c r="A227" t="s">
+        <v>105</v>
       </c>
       <c r="B227" s="1"/>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="B228" s="1"/>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>272</v>
-      </c>
-      <c r="B231" s="1"/>
+      <c r="A231" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>204</v>
+      <c r="A232" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B232" s="1"/>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B233" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B234" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="B234" s="1"/>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1" t="s">
-        <v>142</v>
+      <c r="A235" t="s">
+        <v>219</v>
       </c>
       <c r="B235" s="1"/>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="B236" s="1"/>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B237" s="1"/>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>275</v>
+      <c r="A238" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="B239" s="1"/>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1" t="s">
-        <v>117</v>
+      <c r="A240" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B240" s="1"/>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="2" t="s">
-        <v>19</v>
+      <c r="A241" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B241" s="1"/>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="B242" s="1"/>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1" t="s">
-        <v>139</v>
+      <c r="A243" t="s">
+        <v>234</v>
       </c>
       <c r="B243" s="1"/>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B244" s="1"/>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>247</v>
+      <c r="A245" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B245" s="1"/>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B246" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B247" s="2"/>
+      <c r="A247" t="s">
+        <v>275</v>
+      </c>
+      <c r="B247" s="1"/>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" t="s">
-        <v>277</v>
+      <c r="A248" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B248" s="1"/>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B249" s="1"/>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1" t="s">
-        <v>31</v>
+      <c r="A250" t="s">
+        <v>271</v>
       </c>
       <c r="B250" s="1"/>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B251" s="1"/>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>271</v>
+      <c r="A252" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B252" s="1"/>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1" t="s">
-        <v>96</v>
+      <c r="A253" t="s">
+        <v>221</v>
       </c>
       <c r="B253" s="1"/>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>223</v>
+      <c r="A254" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B254" s="1"/>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="B255" s="1"/>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1" t="s">
-        <v>298</v>
+      <c r="A256" t="s">
+        <v>63</v>
       </c>
       <c r="B256" s="1"/>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B257" s="1"/>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>248</v>
+      <c r="A258" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B258" s="1"/>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="2" t="s">
-        <v>11</v>
+      <c r="A259" t="s">
+        <v>163</v>
       </c>
       <c r="B259" s="1"/>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>163</v>
+      <c r="A260" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B260" s="1"/>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1" t="s">
-        <v>13</v>
+      <c r="A261" t="s">
+        <v>213</v>
       </c>
       <c r="B261" s="1"/>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>215</v>
+      <c r="A262" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B262" s="1"/>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1" t="s">
-        <v>155</v>
+      <c r="A263" t="s">
+        <v>279</v>
       </c>
       <c r="B263" s="1"/>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B264" s="1"/>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="B265" s="1"/>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>176</v>
+      <c r="A266" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B266" s="1"/>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B267" s="1"/>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="B268" s="1"/>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="B269" s="1"/>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B270" s="1"/>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1" t="s">
-        <v>94</v>
+      <c r="A271" t="s">
+        <v>70</v>
       </c>
       <c r="B271" s="1"/>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="B272" s="1"/>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B273" s="1"/>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>234</v>
+      <c r="A274" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B274" s="1"/>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1" t="s">
-        <v>54</v>
+      <c r="A275" t="s">
+        <v>267</v>
       </c>
       <c r="B275" s="1"/>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B276" s="1"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="B277" s="1"/>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B278" s="1"/>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>200</v>
+      <c r="A279" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B279" s="1"/>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
-        <v>132</v>
+      <c r="A280" t="s">
+        <v>266</v>
       </c>
       <c r="B280" s="1"/>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>268</v>
+      <c r="A281" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B281" s="1"/>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
-        <v>1</v>
+      <c r="A282" t="s">
+        <v>249</v>
       </c>
       <c r="B282" s="1"/>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="B283" s="1"/>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>157</v>
-      </c>
-      <c r="B284" s="1"/>
+      <c r="A284" s="5" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
@@ -3499,21 +3538,21 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B286" s="1"/>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B288" s="1"/>
     </row>
@@ -3525,7 +3564,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B290" s="1"/>
     </row>
@@ -3537,13 +3576,13 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B292" s="1"/>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B293" s="1"/>
     </row>
@@ -3567,7 +3606,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B297" s="1"/>
     </row>
@@ -3928,8 +3967,9 @@
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
